--- a/medicine/Maladies infectieuses/Pandémie_de_Covid-19_en_Slovénie/Pandémie_de_Covid-19_en_Slovénie.xlsx
+++ b/medicine/Maladies infectieuses/Pandémie_de_Covid-19_en_Slovénie/Pandémie_de_Covid-19_en_Slovénie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Slov%C3%A9nie</t>
+          <t>Pandémie_de_Covid-19_en_Slovénie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pandémie de Covid-19 est une crise sanitaire majeure provoquée par une maladie infectieuse émergente apparue fin 2019 en Chine continentale, la maladie à coronavirus 2019, dont l'agent pathogène est le SARS-CoV-2. Ce virus est à l'origine d'une pandémie[note 1], déclarée le 11 mars 2020 par l'Organisation mondiale de la santé.
 La pandémie de Covid-19 en Slovénie démarre officiellement le 4 mars 2020. À la date du 18 septembre 2022, le bilan est de 6 803 morts.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Slov%C3%A9nie</t>
+          <t>Pandémie_de_Covid-19_en_Slovénie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le gouvernement impose à partir du 15 septembre 2021 un passe sanitaire. Cette mesure rencontre une certaine opposition dans le pays, où seule la moitié de la population est vaccinée[2].
-Le 19 septembre, dans un contexte social houleux, la Slovénie suspend l’utilisation du vaccin Janssen après un mort [3],[4].
-Le 2 octobre, les contraintes liées au passe sanitaire sont légèrement allégées[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gouvernement impose à partir du 15 septembre 2021 un passe sanitaire. Cette mesure rencontre une certaine opposition dans le pays, où seule la moitié de la population est vaccinée.
+Le 19 septembre, dans un contexte social houleux, la Slovénie suspend l’utilisation du vaccin Janssen après un mort ,.
+Le 2 octobre, les contraintes liées au passe sanitaire sont légèrement allégées.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Slov%C3%A9nie</t>
+          <t>Pandémie_de_Covid-19_en_Slovénie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
